--- a/REM/schlacken_phasenanalysen_gerechnet.xls.xlsx
+++ b/REM/schlacken_phasenanalysen_gerechnet.xls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,234 +436,262 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CuS</t>
+          <t>CaS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CuO</t>
+          <t>KCl</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>NaCl</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Na2O</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>K2O</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cl</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CaO</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>S</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Fe2O3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MgO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Al2O3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SiO2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Cr2O3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MgO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Al2O3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SiO2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CaO</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MnO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Na2O</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>K2O</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>NiO</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TiO2</t>
+          <t>FeO</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>BaO</t>
+          <t>ZnO</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PbO</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cu2O</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CA1</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002485331920302126</v>
+        <v>0.007629786087146427</v>
       </c>
       <c r="C2" t="n">
+        <v>0.006262449852994545</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.288686961655531e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05533890845304477</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0007269041758264843</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.002610518301462892</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.003297302064764699</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.001518458183742371</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.02008261327261499</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.5143407341411917</v>
+        <v>0.0211117051998616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2514031281398231</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.172826372129541</v>
+        <v>0.004515839396904042</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003158045955055575</v>
+        <v>0.01874086228419586</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002926240136720083</v>
+        <v>0.0600342857725977</v>
       </c>
       <c r="M2" t="n">
-        <v>9.949019502714813e-05</v>
+        <v>0.0009777119758306776</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0007471516201843489</v>
+        <v>0.006123991102547539</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0015617518987638</v>
+        <v>0.2405911943834016</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02517966076907797</v>
+        <v>0.5608179839339325</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.009566489841943422</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.007529000670156458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CA1_1</t>
+          <t>Industeel</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008995573046723569</v>
+        <v>0.00711161688609094</v>
       </c>
       <c r="C3" t="n">
+        <v>0.007041879215906818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0029622841011201</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05106807325479898</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.0259382983239787</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0009519885339889524</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.002819413204923395</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.0937048072372655</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1390061546190539</v>
+        <v>0.03242358294733919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4001642339686845</v>
+        <v>0.001942345061857796</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3148640191669978</v>
+        <v>0.0281161230120322</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001502443190088945</v>
+        <v>0.007932963267598193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006277418549782496</v>
+        <v>0.02910470053006551</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0006811708607047938</v>
+        <v>0.04285489052674552</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002030702188679295</v>
+        <v>0.04276918949552697</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003662705391378515</v>
+        <v>0.2681049021112612</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01314676415460496</v>
+        <v>0.4652815491280434</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.006282310394308054</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.007003590067305223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>Formin Singer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001496701790790325</v>
+        <v>0.01339785413897202</v>
       </c>
       <c r="C4" t="n">
+        <v>0.007930599268058331</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.008803133353346782</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.003413393536487954</v>
+        <v>0.0690317365853408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008868737781692473</v>
+        <v>0.005510566866547013</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08528315672150218</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1674684008542391</v>
+        <v>0.04235544376362736</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3958297272531472</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3067679627558189</v>
+        <v>0.0108622464288747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00359647420519282</v>
+        <v>0.02437819312302184</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003352247798199668</v>
+        <v>0.1329146303258737</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001437945428666378</v>
+        <v>0.001740669089044111</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0003797758115056619</v>
+        <v>0.008970568153505077</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002987540083514944</v>
+        <v>0.1401943571398857</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0116618342376069</v>
+        <v>0.5316935512317915</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.003421155355553354</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.007598428529904609</v>
       </c>
     </row>
   </sheetData>
